--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\GitHub\Agile-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>User Story</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Matt, Declane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Group 7 : Sprint 1</t>
@@ -177,7 +174,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -223,6 +214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +349,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -365,9 +368,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -380,34 +380,31 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,16 +416,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1657,7 +1666,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1672,20 +1681,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1733,626 +1742,636 @@
       <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="25" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="25" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="25" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="25" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="25" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>6</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="25" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="25" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="18" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <f>SUM(B3:B28)</f>
         <v>33</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="12">
-        <f t="shared" ref="F29:K29" si="0">SUM(G3:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="G29" s="10">
+        <f t="shared" ref="G29:K29" si="0">SUM(G3:G8)</f>
+        <v>14</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="12"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <f>SUMIF(C3:C28,"Y",B3:B28)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -174,7 +174,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +203,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -349,7 +343,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -416,29 +410,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,7 +1654,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,20 +1669,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1745,14 +1733,14 @@
       <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1764,17 +1752,17 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="10">
         <v>3</v>
       </c>
       <c r="G4" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1786,8 +1774,8 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1806,10 +1794,10 @@
       <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="10">
@@ -1828,17 +1816,21 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1848,17 +1840,21 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1868,8 +1864,8 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1888,7 +1884,7 @@
       <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1906,7 +1902,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1924,7 +1920,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1962,7 +1958,7 @@
       <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1980,7 +1976,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -1998,7 +1994,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -2036,7 +2032,7 @@
       <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2054,7 +2050,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -2092,7 +2088,7 @@
       <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2110,7 +2106,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2128,7 +2124,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2236,11 +2232,11 @@
       </c>
       <c r="G29" s="10">
         <f t="shared" ref="G29:K29" si="0">SUM(G3:G8)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="0"/>
@@ -2378,7 +2374,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
